--- a/data/trans_camb/P1421-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.383779953967343</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.887158954909076</v>
+        <v>6.887158954909074</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.103588160902139</v>
@@ -664,7 +664,7 @@
         <v>1.282171691238423</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.97592057580404</v>
+        <v>4.975920575804043</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.983862298388558</v>
+        <v>-1.83852309002977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.262938398181942</v>
+        <v>-1.195323544643685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.1218338347966</v>
+        <v>1.292825770658141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.412141879941621</v>
+        <v>2.628299236996665</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5323328084043508</v>
+        <v>0.4609137131584043</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.004520002824458</v>
+        <v>4.786688331077993</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6795644948762525</v>
+        <v>0.8071126158856425</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07732294580506976</v>
+        <v>-5.42442148259675e-05</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.677663324449623</v>
+        <v>3.569094486109435</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5337270096723922</v>
+        <v>0.5325000906492097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.496855752674629</v>
+        <v>1.536108644133573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.843672109713103</v>
+        <v>4.894937919743838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.197467704752844</v>
+        <v>7.178350827485318</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.43762892860478</v>
+        <v>4.468091129528955</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.159842233236532</v>
+        <v>9.009841732505715</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.546972380561676</v>
+        <v>3.381746840314864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.456758320671127</v>
+        <v>2.578089362150461</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.451639352689815</v>
+        <v>6.490149010547944</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.6589421407302292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.557257954398402</v>
+        <v>2.557257954398404</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7994991334244522</v>
+        <v>-0.8104044548894302</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5851330577046935</v>
+        <v>-0.5690861081911883</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3637748408238164</v>
+        <v>0.4855063454962258</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7659062515744048</v>
+        <v>0.7167132323105085</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.124750224664079</v>
+        <v>0.1201629032711889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.243238289015928</v>
+        <v>1.465606391269213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2682095488137134</v>
+        <v>0.2834594475384757</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02023217191516916</v>
+        <v>-0.01742447454380257</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.361754317989097</v>
+        <v>1.376356085829529</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8743566749934315</v>
+        <v>0.8087960896837896</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.537963630639567</v>
+        <v>1.639059757660753</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.116869590944452</v>
+        <v>4.977775185396853</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.291228805072125</v>
+        <v>4.58902560883854</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.766750101361389</v>
+        <v>2.929810060457973</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.800942805871342</v>
+        <v>6.202403724965313</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.420052719224236</v>
+        <v>2.302987354966667</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.752295134402571</v>
+        <v>1.745890305247471</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.709396481674439</v>
+        <v>4.561923737886155</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.399141427288062</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.91779921890272</v>
+        <v>2.917799218902718</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.782895770372068</v>
+        <v>-2.774129266051394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.970665463089956</v>
+        <v>-2.946251510279194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3249224615818653</v>
+        <v>-0.444018334834156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.353868894765444</v>
+        <v>-2.410471265855066</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.352235666257281</v>
+        <v>-1.303936635270284</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.498811273083957</v>
+        <v>2.385214757758408</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.195633559803843</v>
+        <v>-2.173495344460596</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.63202312423369</v>
+        <v>-1.658143097318524</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.50637343492456</v>
+        <v>1.569178232572883</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3524765634884058</v>
+        <v>-0.334972614062039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5001194662765166</v>
+        <v>-0.3569919797684833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.052478981451682</v>
+        <v>2.922685519755726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.429837668292471</v>
+        <v>1.474309968027662</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.877117619635592</v>
+        <v>2.892063990734024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.522027653042019</v>
+        <v>6.76494942279137</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2173367609789737</v>
+        <v>0.2477989912918844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8523448159563934</v>
+        <v>0.7906203673713058</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.169687105988125</v>
+        <v>4.166827386434115</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1034064561683374</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7559207248605669</v>
+        <v>0.7559207248605666</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8145772236262775</v>
+        <v>-0.812195672466292</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8313089188032505</v>
+        <v>-0.8424480328478293</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1239412826457264</v>
+        <v>-0.1522859683996984</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3895849792759413</v>
+        <v>-0.3913941747580169</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2355751228267251</v>
+        <v>-0.216854276569297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3891611568013411</v>
+        <v>0.3622497622538034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4864523905333511</v>
+        <v>-0.4843575549893847</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.360657818940241</v>
+        <v>-0.3714829755961578</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3087360358694039</v>
+        <v>0.3432542173258956</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1049581558200491</v>
+        <v>-0.09104535772502116</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2095731433224899</v>
+        <v>-0.1378904296838386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.646964367379933</v>
+        <v>1.624527732372964</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.36168209336115</v>
+        <v>0.3543101869767201</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6616330312604558</v>
+        <v>0.7430898233840155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.567583140650326</v>
+        <v>1.62656104249264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07926370079140747</v>
+        <v>0.08019158392149144</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2723890468227534</v>
+        <v>0.2449500715548082</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.260519872606841</v>
+        <v>1.324823408645569</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.356872907520767</v>
+        <v>-2.318176001639324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.019021765394401</v>
+        <v>-2.065793996104456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6758203524314129</v>
+        <v>0.6646108805997675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.100622175288883</v>
+        <v>-4.135396196918713</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.350996283144815</v>
+        <v>-4.269369973274543</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.89380949763693</v>
+        <v>3.877363607415016</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.697593233408656</v>
+        <v>-2.675361275300412</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.628001050250502</v>
+        <v>-2.587553515044726</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.979778712939591</v>
+        <v>2.939508159488295</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2292776136588252</v>
+        <v>0.3564948641831628</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7014329610176202</v>
+        <v>0.7757619075666469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.348278190923563</v>
+        <v>4.406127760159883</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9782780525984685</v>
+        <v>1.214953530301343</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5147472984953692</v>
+        <v>0.612708907565237</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.385402777097667</v>
+        <v>9.531591272966757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1713330863254107</v>
+        <v>0.1806569062220678</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1928605927928323</v>
+        <v>0.1503774466261378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.353106814833014</v>
+        <v>6.327978024342583</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8201842422384988</v>
+        <v>-0.805881620294657</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.72050739020347</v>
+        <v>-0.7203668032921966</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1915210555970327</v>
+        <v>0.179040786326836</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5181229202925324</v>
+        <v>-0.5115071712011237</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5342507984285887</v>
+        <v>-0.5243540708585861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4696692940747233</v>
+        <v>0.4741427159660364</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5066516897796456</v>
+        <v>-0.5061655104916313</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5059333998952641</v>
+        <v>-0.4956819454060774</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5589234984047331</v>
+        <v>0.5587244423510315</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2837614636880034</v>
+        <v>0.5485382847386919</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5456687081684554</v>
+        <v>0.6600979713572752</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.323304572461348</v>
+        <v>3.340629669215697</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.182062165015606</v>
+        <v>0.242535384951708</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1274605532073359</v>
+        <v>0.1148853969960528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.784600844006509</v>
+        <v>1.735410332693834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06240031176523501</v>
+        <v>0.05638608789348287</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05991493352787738</v>
+        <v>0.05177755276741108</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.797438498668333</v>
+        <v>1.755326881140221</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.736391960164686</v>
+        <v>-2.873995696199851</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.818301938547926</v>
+        <v>-2.758052591278724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4211025697020436</v>
+        <v>0.4730892861590458</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.369735504136235</v>
+        <v>-5.188466728695432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.193795884168213</v>
+        <v>-4.14991296911206</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.353308333030122</v>
+        <v>2.363868831116309</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.556722643929222</v>
+        <v>-3.679080162116969</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.010178611084788</v>
+        <v>-3.121926476839377</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.076523683672429</v>
+        <v>1.969113929340451</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.002032146042113172</v>
+        <v>-0.05732602739741444</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.09601636703348602</v>
+        <v>-0.04904766744592717</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.243045499180485</v>
+        <v>4.349702891430489</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.066276321207579</v>
+        <v>-0.9376284832359962</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5499430882659071</v>
+        <v>0.480147582172576</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.339011283092719</v>
+        <v>7.391508180907493</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.8845059963170908</v>
+        <v>-1.075443250056398</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1961852784744973</v>
+        <v>-0.2966577681143189</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.325004426632372</v>
+        <v>5.117725445299359</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7128194777198094</v>
+        <v>-0.7146854213974567</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7167920801665303</v>
+        <v>-0.7147887373558078</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09449206240041384</v>
+        <v>0.09678818399651404</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5602888013748835</v>
+        <v>-0.5599149249309363</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4653853621688412</v>
+        <v>-0.4617544664206425</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2520008368395436</v>
+        <v>0.2333471771730833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5593172744854006</v>
+        <v>-0.5710946800227718</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.479688987993614</v>
+        <v>-0.485090612808228</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3319736114604035</v>
+        <v>0.3060536759855248</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02309053882315029</v>
+        <v>0.01687707351037247</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01961400661818751</v>
+        <v>0.0002133770087692907</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.757727014378142</v>
+        <v>1.788071156129843</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1359538534696381</v>
+        <v>-0.1313575480412501</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08142444739021819</v>
+        <v>0.0775183408825762</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.074474843979025</v>
+        <v>1.066734168685699</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1807143776500864</v>
+        <v>-0.1980694465141497</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.03727554535691002</v>
+        <v>-0.04704001806317876</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.139962205888703</v>
+        <v>1.036533590163882</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.2747297026142501</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.560531944133392</v>
+        <v>5.560531944133395</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.7976395069569875</v>
@@ -1520,7 +1520,7 @@
         <v>-0.6114475671145938</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.922075476606081</v>
+        <v>3.922075476606082</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.861807972096228</v>
+        <v>-1.82676206729858</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.668570563628703</v>
+        <v>-1.721496384345382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.222842597644031</v>
+        <v>1.216300183103215</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.524428837184474</v>
+        <v>-1.431673208833506</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.39432021205168</v>
+        <v>-1.348069909886904</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.365509299080435</v>
+        <v>4.309026225195145</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.478436190713938</v>
+        <v>-1.423563423626848</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.280586348785991</v>
+        <v>-1.259459109570519</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.142831835625874</v>
+        <v>3.125984444100368</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5258186368196953</v>
+        <v>-0.4995453562121528</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.302007183058819</v>
+        <v>-0.3495595054318212</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.13023041927194</v>
+        <v>3.015326277076642</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7120528617148562</v>
+        <v>0.7481717109130649</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8318070751301946</v>
+        <v>0.7973596829538033</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.720808968090984</v>
+        <v>6.733492784066965</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.1474531351638777</v>
+        <v>-0.1621380881410046</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0536074035613584</v>
+        <v>0.0563703858291805</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.750508626997241</v>
+        <v>4.69157994627459</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.04763289115219851</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9640901960103178</v>
+        <v>0.9640901960103183</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1942000396714633</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1488681801177096</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.954901564564112</v>
+        <v>0.9549015645641123</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6632572227453066</v>
+        <v>-0.6469558193659449</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5864887559027333</v>
+        <v>-0.5985093568700395</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4105623856405544</v>
+        <v>0.4153727965714087</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2477183773832455</v>
+        <v>-0.2300365525401592</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2197193349954492</v>
+        <v>-0.2163198626312338</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6898520190668137</v>
+        <v>0.6747083667264735</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3301731520051614</v>
+        <v>-0.3206505097638545</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2848973510030631</v>
+        <v>-0.281724802623603</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6994928907849443</v>
+        <v>0.6950635297388281</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2500143374350113</v>
+        <v>-0.2304075557297869</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1374876678257789</v>
+        <v>-0.1405638890072482</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.481908134798763</v>
+        <v>1.485482073053837</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1431219113019396</v>
+        <v>0.1469955581464062</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1596079863449956</v>
+        <v>0.1509171469437261</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.320781424020667</v>
+        <v>1.30521017874595</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.04099131099691473</v>
+        <v>-0.04333589602832195</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01556491326214574</v>
+        <v>0.01344714273321715</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.271084844346914</v>
+        <v>1.240622737229634</v>
       </c>
     </row>
     <row r="34">
